--- a/inventários.xlsx
+++ b/inventários.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\INVENTÁRIOS EDIJEFERSON LTDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA INVENTARIO" sheetId="1" r:id="rId1"/>
     <sheet name="INVENTÁRIO CÍCLICO" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="PLANO DE CONTAGEM CICLICO" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>Ficha de inventário EdiJeferson LTDA.</t>
   </si>
@@ -214,19 +214,52 @@
     <t xml:space="preserve">Inventário Cíclico - Edijeferson LTDA. </t>
   </si>
   <si>
-    <t>Contagem Mensal</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>Produto</t>
   </si>
   <si>
-    <t>Data da ultima contagem</t>
-  </si>
-  <si>
-    <t>Data da próxima contagem</t>
+    <t>quantidade de itens</t>
+  </si>
+  <si>
+    <t>custos</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
+  <si>
+    <t>programa anual</t>
+  </si>
+  <si>
+    <t>programa mensal</t>
+  </si>
+  <si>
+    <t>Programa diário</t>
+  </si>
+  <si>
+    <t>Torneira</t>
+  </si>
+  <si>
+    <t>Conjunto Acoplado</t>
+  </si>
+  <si>
+    <t>Chuveiro Elétrico</t>
+  </si>
+  <si>
+    <t>Chuveiro quadrado</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>Bimestral</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>quadrimestral</t>
+  </si>
+  <si>
+    <t>Plano de contagens cíclicas 2024</t>
   </si>
 </sst>
 </file>
@@ -236,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +326,31 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,12 +383,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,18 +401,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -422,12 +478,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -446,53 +537,80 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,30 +912,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1288,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1316,210 +1434,210 @@
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>2142</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>45334</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>45376</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>30</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>20</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>2143</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>45334</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>45395</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>20</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>8</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>3515</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>45334</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>45404</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>10</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>5</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>3516</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>45368</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>45371</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>12</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>3517</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>45368</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>45373</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>8</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>6</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>5633</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>45368</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>45420</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>20</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>10</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>10</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>5608</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>45368</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>45417</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>23</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>12</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>11</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1534,144 +1652,219 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="23">
-        <v>2142</v>
-      </c>
-      <c r="C3" s="24">
-        <v>45421</v>
-      </c>
-      <c r="D3" s="24">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="23">
-        <v>2143</v>
-      </c>
-      <c r="C4" s="24">
-        <v>45421</v>
-      </c>
-      <c r="D4" s="24">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="23">
-        <v>3515</v>
-      </c>
-      <c r="C5" s="24">
-        <v>45421</v>
-      </c>
-      <c r="D5" s="24">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="23">
-        <v>3516</v>
-      </c>
-      <c r="C6" s="24">
-        <v>45421</v>
-      </c>
-      <c r="D6" s="24">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="F2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="30">
+        <v>200</v>
+      </c>
+      <c r="C3" s="30">
+        <v>30</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="21">
+        <v>3600</v>
+      </c>
+      <c r="F3" s="22">
+        <v>300</v>
+      </c>
+      <c r="G3" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="30">
+        <v>150</v>
+      </c>
+      <c r="C4" s="30">
+        <v>55</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="22">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>333.33</v>
+      </c>
+      <c r="G4" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="30">
+        <v>120</v>
+      </c>
+      <c r="C5" s="30">
+        <v>76</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="22">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>250</v>
+      </c>
+      <c r="G5" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="30">
+        <v>239</v>
+      </c>
+      <c r="C6" s="30">
+        <v>45</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="22">
+        <v>2300</v>
+      </c>
+      <c r="F6" s="22">
+        <v>191.66</v>
+      </c>
+      <c r="G6" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="23">
-        <v>3517</v>
-      </c>
-      <c r="C7" s="24">
-        <v>45421</v>
-      </c>
-      <c r="D7" s="24">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="30">
+        <v>200</v>
+      </c>
+      <c r="C7" s="30">
+        <v>90</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="22">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>500</v>
+      </c>
+      <c r="G7" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="23">
-        <v>5633</v>
-      </c>
-      <c r="C8" s="24">
-        <v>45421</v>
-      </c>
-      <c r="D8" s="24">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="B8" s="30">
+        <v>90</v>
+      </c>
+      <c r="C8" s="30">
+        <v>70</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="22">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="22">
+        <v>350</v>
+      </c>
+      <c r="G8" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="23">
-        <v>5608</v>
-      </c>
-      <c r="C9" s="24">
-        <v>45421</v>
-      </c>
-      <c r="D9" s="24">
-        <v>45451</v>
+      <c r="B9" s="30">
+        <v>76</v>
+      </c>
+      <c r="C9" s="30">
+        <v>35</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3500</v>
+      </c>
+      <c r="F9" s="22">
+        <v>291.66000000000003</v>
+      </c>
+      <c r="G9" s="22">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>